--- a/notebooks/Scores.xlsx
+++ b/notebooks/Scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FEM</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>(parallel)</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>multifeature</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>synt</t>
+  </si>
+  <si>
+    <t>0.0098</t>
+  </si>
+  <si>
+    <t>0.0404</t>
   </si>
 </sst>
 </file>
@@ -367,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,15 +398,18 @@
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -404,8 +425,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -419,7 +446,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -432,8 +459,20 @@
       <c r="D4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.51251999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.24</v>
+      </c>
+      <c r="I4">
+        <v>0.57621999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -449,8 +488,20 @@
       <c r="E5">
         <v>488</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.38584000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>0.35177999999999998</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
@@ -466,16 +517,28 @@
       <c r="E6">
         <v>563</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>0.49399999999999999</v>
+        <v>0.24279999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>6.4100000000000004E-2</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -483,8 +546,20 @@
       <c r="E7" s="1">
         <v>609</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>0.4143</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -500,8 +575,20 @@
       <c r="E8">
         <v>650</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.375</v>
+      </c>
+      <c r="H8">
+        <v>0.1</v>
+      </c>
+      <c r="I8">
+        <v>0.3286</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -520,8 +607,20 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.1</v>
+      </c>
+      <c r="I9">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70</v>
       </c>
@@ -537,8 +636,20 @@
       <c r="E10">
         <v>712</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.372</v>
+      </c>
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10">
+        <v>0.32829999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80</v>
       </c>
@@ -554,8 +665,20 @@
       <c r="E11" s="1">
         <v>723</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>0.2278</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -570,6 +693,109 @@
       </c>
       <c r="E12" s="1">
         <v>745</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.4592</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="D16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C17">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
